--- a/config/symbol_universe.xlsx
+++ b/config/symbol_universe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tools\TickSutra\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAE2079-3210-44E3-B8DB-F0535C2EFED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E30B31B-735F-43F3-BCFC-8A152F7BC676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,2145 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="713">
   <si>
     <t>Symbol</t>
   </si>
   <si>
     <t>005930</t>
+  </si>
+  <si>
+    <t>000050</t>
+  </si>
+  <si>
+    <t>000070</t>
+  </si>
+  <si>
+    <t>000080</t>
+  </si>
+  <si>
+    <t>000100</t>
+  </si>
+  <si>
+    <t>000120</t>
+  </si>
+  <si>
+    <t>000150</t>
+  </si>
+  <si>
+    <t>000210</t>
+  </si>
+  <si>
+    <t>000240</t>
+  </si>
+  <si>
+    <t>000250</t>
+  </si>
+  <si>
+    <t>000270</t>
+  </si>
+  <si>
+    <t>000320</t>
+  </si>
+  <si>
+    <t>000440</t>
+  </si>
+  <si>
+    <t>000490</t>
+  </si>
+  <si>
+    <t>000500</t>
+  </si>
+  <si>
+    <t>000640</t>
+  </si>
+  <si>
+    <t>000660</t>
+  </si>
+  <si>
+    <t>000670</t>
+  </si>
+  <si>
+    <t>000720</t>
+  </si>
+  <si>
+    <t>000810</t>
+  </si>
+  <si>
+    <t>000880</t>
+  </si>
+  <si>
+    <t>0008Z0</t>
+  </si>
+  <si>
+    <t>000970</t>
+  </si>
+  <si>
+    <t>000990</t>
+  </si>
+  <si>
+    <t>001040</t>
+  </si>
+  <si>
+    <t>001060</t>
+  </si>
+  <si>
+    <t>001120</t>
+  </si>
+  <si>
+    <t>001340</t>
+  </si>
+  <si>
+    <t>001430</t>
+  </si>
+  <si>
+    <t>001440</t>
+  </si>
+  <si>
+    <t>001450</t>
+  </si>
+  <si>
+    <t>001500</t>
+  </si>
+  <si>
+    <t>001530</t>
+  </si>
+  <si>
+    <t>001680</t>
+  </si>
+  <si>
+    <t>001720</t>
+  </si>
+  <si>
+    <t>001740</t>
+  </si>
+  <si>
+    <t>001800</t>
+  </si>
+  <si>
+    <t>001820</t>
+  </si>
+  <si>
+    <t>002310</t>
+  </si>
+  <si>
+    <t>002350</t>
+  </si>
+  <si>
+    <t>002380</t>
+  </si>
+  <si>
+    <t>002390</t>
+  </si>
+  <si>
+    <t>002710</t>
+  </si>
+  <si>
+    <t>002790</t>
+  </si>
+  <si>
+    <t>002840</t>
+  </si>
+  <si>
+    <t>002900</t>
+  </si>
+  <si>
+    <t>002960</t>
+  </si>
+  <si>
+    <t>003030</t>
+  </si>
+  <si>
+    <t>003070</t>
+  </si>
+  <si>
+    <t>003090</t>
+  </si>
+  <si>
+    <t>003160</t>
+  </si>
+  <si>
+    <t>003220</t>
+  </si>
+  <si>
+    <t>003230</t>
+  </si>
+  <si>
+    <t>003240</t>
+  </si>
+  <si>
+    <t>003350</t>
+  </si>
+  <si>
+    <t>003380</t>
+  </si>
+  <si>
+    <t>003490</t>
+  </si>
+  <si>
+    <t>003550</t>
+  </si>
+  <si>
+    <t>003620</t>
+  </si>
+  <si>
+    <t>003670</t>
+  </si>
+  <si>
+    <t>003690</t>
+  </si>
+  <si>
+    <t>003850</t>
+  </si>
+  <si>
+    <t>003920</t>
+  </si>
+  <si>
+    <t>003960</t>
+  </si>
+  <si>
+    <t>004000</t>
+  </si>
+  <si>
+    <t>004020</t>
+  </si>
+  <si>
+    <t>004090</t>
+  </si>
+  <si>
+    <t>004170</t>
+  </si>
+  <si>
+    <t>004370</t>
+  </si>
+  <si>
+    <t>004430</t>
+  </si>
+  <si>
+    <t>004490</t>
+  </si>
+  <si>
+    <t>004560</t>
+  </si>
+  <si>
+    <t>004690</t>
+  </si>
+  <si>
+    <t>004800</t>
+  </si>
+  <si>
+    <t>004980</t>
+  </si>
+  <si>
+    <t>004990</t>
+  </si>
+  <si>
+    <t>005090</t>
+  </si>
+  <si>
+    <t>005180</t>
+  </si>
+  <si>
+    <t>005250</t>
+  </si>
+  <si>
+    <t>005290</t>
+  </si>
+  <si>
+    <t>005300</t>
+  </si>
+  <si>
+    <t>005380</t>
+  </si>
+  <si>
+    <t>005420</t>
+  </si>
+  <si>
+    <t>005430</t>
+  </si>
+  <si>
+    <t>005440</t>
+  </si>
+  <si>
+    <t>005490</t>
+  </si>
+  <si>
+    <t>005610</t>
+  </si>
+  <si>
+    <t>005810</t>
+  </si>
+  <si>
+    <t>005830</t>
+  </si>
+  <si>
+    <t>005850</t>
+  </si>
+  <si>
+    <t>005870</t>
+  </si>
+  <si>
+    <t>005940</t>
+  </si>
+  <si>
+    <t>005950</t>
+  </si>
+  <si>
+    <t>006040</t>
+  </si>
+  <si>
+    <t>006110</t>
+  </si>
+  <si>
+    <t>006120</t>
+  </si>
+  <si>
+    <t>006260</t>
+  </si>
+  <si>
+    <t>006280</t>
+  </si>
+  <si>
+    <t>006360</t>
+  </si>
+  <si>
+    <t>006400</t>
+  </si>
+  <si>
+    <t>006650</t>
+  </si>
+  <si>
+    <t>006660</t>
+  </si>
+  <si>
+    <t>006730</t>
+  </si>
+  <si>
+    <t>006800</t>
+  </si>
+  <si>
+    <t>007070</t>
+  </si>
+  <si>
+    <t>007160</t>
+  </si>
+  <si>
+    <t>007310</t>
+  </si>
+  <si>
+    <t>007340</t>
+  </si>
+  <si>
+    <t>007390</t>
+  </si>
+  <si>
+    <t>007570</t>
+  </si>
+  <si>
+    <t>007810</t>
+  </si>
+  <si>
+    <t>007860</t>
+  </si>
+  <si>
+    <t>008730</t>
+  </si>
+  <si>
+    <t>008770</t>
+  </si>
+  <si>
+    <t>008830</t>
+  </si>
+  <si>
+    <t>008930</t>
+  </si>
+  <si>
+    <t>009150</t>
+  </si>
+  <si>
+    <t>009240</t>
+  </si>
+  <si>
+    <t>009420</t>
+  </si>
+  <si>
+    <t>009450</t>
+  </si>
+  <si>
+    <t>009470</t>
+  </si>
+  <si>
+    <t>009520</t>
+  </si>
+  <si>
+    <t>009540</t>
+  </si>
+  <si>
+    <t>009780</t>
+  </si>
+  <si>
+    <t>009830</t>
+  </si>
+  <si>
+    <t>009900</t>
+  </si>
+  <si>
+    <t>009970</t>
+  </si>
+  <si>
+    <t>010060</t>
+  </si>
+  <si>
+    <t>010120</t>
+  </si>
+  <si>
+    <t>010130</t>
+  </si>
+  <si>
+    <t>010140</t>
+  </si>
+  <si>
+    <t>010620</t>
+  </si>
+  <si>
+    <t>010780</t>
+  </si>
+  <si>
+    <t>010950</t>
+  </si>
+  <si>
+    <t>011070</t>
+  </si>
+  <si>
+    <t>011170</t>
+  </si>
+  <si>
+    <t>011200</t>
+  </si>
+  <si>
+    <t>011210</t>
+  </si>
+  <si>
+    <t>011390</t>
+  </si>
+  <si>
+    <t>011500</t>
+  </si>
+  <si>
+    <t>011760</t>
+  </si>
+  <si>
+    <t>011780</t>
+  </si>
+  <si>
+    <t>011790</t>
+  </si>
+  <si>
+    <t>012330</t>
+  </si>
+  <si>
+    <t>012450</t>
+  </si>
+  <si>
+    <t>012510</t>
+  </si>
+  <si>
+    <t>012630</t>
+  </si>
+  <si>
+    <t>012700</t>
+  </si>
+  <si>
+    <t>012750</t>
+  </si>
+  <si>
+    <t>013580</t>
+  </si>
+  <si>
+    <t>013890</t>
+  </si>
+  <si>
+    <t>014620</t>
+  </si>
+  <si>
+    <t>014680</t>
+  </si>
+  <si>
+    <t>014710</t>
+  </si>
+  <si>
+    <t>014820</t>
+  </si>
+  <si>
+    <t>014830</t>
+  </si>
+  <si>
+    <t>014940</t>
+  </si>
+  <si>
+    <t>015750</t>
+  </si>
+  <si>
+    <t>015760</t>
+  </si>
+  <si>
+    <t>016360</t>
+  </si>
+  <si>
+    <t>016380</t>
+  </si>
+  <si>
+    <t>017370</t>
+  </si>
+  <si>
+    <t>017670</t>
+  </si>
+  <si>
+    <t>017800</t>
+  </si>
+  <si>
+    <t>017860</t>
+  </si>
+  <si>
+    <t>017940</t>
+  </si>
+  <si>
+    <t>017960</t>
+  </si>
+  <si>
+    <t>018260</t>
+  </si>
+  <si>
+    <t>018290</t>
+  </si>
+  <si>
+    <t>018670</t>
+  </si>
+  <si>
+    <t>018880</t>
+  </si>
+  <si>
+    <t>019210</t>
+  </si>
+  <si>
+    <t>020150</t>
+  </si>
+  <si>
+    <t>020560</t>
+  </si>
+  <si>
+    <t>021240</t>
+  </si>
+  <si>
+    <t>022100</t>
+  </si>
+  <si>
+    <t>023160</t>
+  </si>
+  <si>
+    <t>023530</t>
+  </si>
+  <si>
+    <t>023590</t>
+  </si>
+  <si>
+    <t>024060</t>
+  </si>
+  <si>
+    <t>024110</t>
+  </si>
+  <si>
+    <t>025320</t>
+  </si>
+  <si>
+    <t>025540</t>
+  </si>
+  <si>
+    <t>025770</t>
+  </si>
+  <si>
+    <t>025860</t>
+  </si>
+  <si>
+    <t>025900</t>
+  </si>
+  <si>
+    <t>025950</t>
+  </si>
+  <si>
+    <t>025980</t>
+  </si>
+  <si>
+    <t>026960</t>
+  </si>
+  <si>
+    <t>028050</t>
+  </si>
+  <si>
+    <t>028100</t>
+  </si>
+  <si>
+    <t>028260</t>
+  </si>
+  <si>
+    <t>028300</t>
+  </si>
+  <si>
+    <t>028670</t>
+  </si>
+  <si>
+    <t>029780</t>
+  </si>
+  <si>
+    <t>030000</t>
+  </si>
+  <si>
+    <t>030190</t>
+  </si>
+  <si>
+    <t>030200</t>
+  </si>
+  <si>
+    <t>030520</t>
+  </si>
+  <si>
+    <t>030530</t>
+  </si>
+  <si>
+    <t>030960</t>
+  </si>
+  <si>
+    <t>031210</t>
+  </si>
+  <si>
+    <t>031430</t>
+  </si>
+  <si>
+    <t>031980</t>
+  </si>
+  <si>
+    <t>032190</t>
+  </si>
+  <si>
+    <t>032300</t>
+  </si>
+  <si>
+    <t>032500</t>
+  </si>
+  <si>
+    <t>032640</t>
+  </si>
+  <si>
+    <t>032830</t>
+  </si>
+  <si>
+    <t>033100</t>
+  </si>
+  <si>
+    <t>033160</t>
+  </si>
+  <si>
+    <t>033240</t>
+  </si>
+  <si>
+    <t>033500</t>
+  </si>
+  <si>
+    <t>033640</t>
+  </si>
+  <si>
+    <t>033780</t>
+  </si>
+  <si>
+    <t>034020</t>
+  </si>
+  <si>
+    <t>034120</t>
+  </si>
+  <si>
+    <t>034220</t>
+  </si>
+  <si>
+    <t>034730</t>
+  </si>
+  <si>
+    <t>034950</t>
+  </si>
+  <si>
+    <t>035080</t>
+  </si>
+  <si>
+    <t>035150</t>
+  </si>
+  <si>
+    <t>035250</t>
+  </si>
+  <si>
+    <t>035420</t>
+  </si>
+  <si>
+    <t>035510</t>
+  </si>
+  <si>
+    <t>035720</t>
+  </si>
+  <si>
+    <t>035760</t>
+  </si>
+  <si>
+    <t>035900</t>
+  </si>
+  <si>
+    <t>036460</t>
+  </si>
+  <si>
+    <t>036540</t>
+  </si>
+  <si>
+    <t>036560</t>
+  </si>
+  <si>
+    <t>036570</t>
+  </si>
+  <si>
+    <t>036810</t>
+  </si>
+  <si>
+    <t>036830</t>
+  </si>
+  <si>
+    <t>036890</t>
+  </si>
+  <si>
+    <t>036930</t>
+  </si>
+  <si>
+    <t>039030</t>
+  </si>
+  <si>
+    <t>039130</t>
+  </si>
+  <si>
+    <t>039200</t>
+  </si>
+  <si>
+    <t>039440</t>
+  </si>
+  <si>
+    <t>039490</t>
+  </si>
+  <si>
+    <t>041190</t>
+  </si>
+  <si>
+    <t>041440</t>
+  </si>
+  <si>
+    <t>041510</t>
+  </si>
+  <si>
+    <t>042000</t>
+  </si>
+  <si>
+    <t>042660</t>
+  </si>
+  <si>
+    <t>042670</t>
+  </si>
+  <si>
+    <t>042700</t>
+  </si>
+  <si>
+    <t>044490</t>
+  </si>
+  <si>
+    <t>045660</t>
+  </si>
+  <si>
+    <t>046890</t>
+  </si>
+  <si>
+    <t>047040</t>
+  </si>
+  <si>
+    <t>047050</t>
+  </si>
+  <si>
+    <t>047560</t>
+  </si>
+  <si>
+    <t>047810</t>
+  </si>
+  <si>
+    <t>047920</t>
+  </si>
+  <si>
+    <t>048410</t>
+  </si>
+  <si>
+    <t>048430</t>
+  </si>
+  <si>
+    <t>049070</t>
+  </si>
+  <si>
+    <t>050890</t>
+  </si>
+  <si>
+    <t>051360</t>
+  </si>
+  <si>
+    <t>051600</t>
+  </si>
+  <si>
+    <t>051900</t>
+  </si>
+  <si>
+    <t>051910</t>
+  </si>
+  <si>
+    <t>052690</t>
+  </si>
+  <si>
+    <t>053030</t>
+  </si>
+  <si>
+    <t>053080</t>
+  </si>
+  <si>
+    <t>053300</t>
+  </si>
+  <si>
+    <t>053580</t>
+  </si>
+  <si>
+    <t>053610</t>
+  </si>
+  <si>
+    <t>053690</t>
+  </si>
+  <si>
+    <t>053800</t>
+  </si>
+  <si>
+    <t>055550</t>
+  </si>
+  <si>
+    <t>056190</t>
+  </si>
+  <si>
+    <t>058430</t>
+  </si>
+  <si>
+    <t>058470</t>
+  </si>
+  <si>
+    <t>058610</t>
+  </si>
+  <si>
+    <t>058970</t>
+  </si>
+  <si>
+    <t>059090</t>
+  </si>
+  <si>
+    <t>059210</t>
+  </si>
+  <si>
+    <t>060250</t>
+  </si>
+  <si>
+    <t>060280</t>
+  </si>
+  <si>
+    <t>063080</t>
+  </si>
+  <si>
+    <t>064350</t>
+  </si>
+  <si>
+    <t>064400</t>
+  </si>
+  <si>
+    <t>064550</t>
+  </si>
+  <si>
+    <t>064760</t>
+  </si>
+  <si>
+    <t>064960</t>
+  </si>
+  <si>
+    <t>065350</t>
+  </si>
+  <si>
+    <t>065710</t>
+  </si>
+  <si>
+    <t>066570</t>
+  </si>
+  <si>
+    <t>066970</t>
+  </si>
+  <si>
+    <t>067080</t>
+  </si>
+  <si>
+    <t>067160</t>
+  </si>
+  <si>
+    <t>067310</t>
+  </si>
+  <si>
+    <t>068240</t>
+  </si>
+  <si>
+    <t>068270</t>
+  </si>
+  <si>
+    <t>068290</t>
+  </si>
+  <si>
+    <t>068760</t>
+  </si>
+  <si>
+    <t>069080</t>
+  </si>
+  <si>
+    <t>069260</t>
+  </si>
+  <si>
+    <t>069620</t>
+  </si>
+  <si>
+    <t>069960</t>
+  </si>
+  <si>
+    <t>071050</t>
+  </si>
+  <si>
+    <t>071320</t>
+  </si>
+  <si>
+    <t>071970</t>
+  </si>
+  <si>
+    <t>073240</t>
+  </si>
+  <si>
+    <t>074600</t>
+  </si>
+  <si>
+    <t>075580</t>
+  </si>
+  <si>
+    <t>077970</t>
+  </si>
+  <si>
+    <t>078140</t>
+  </si>
+  <si>
+    <t>078160</t>
+  </si>
+  <si>
+    <t>078340</t>
+  </si>
+  <si>
+    <t>078600</t>
+  </si>
+  <si>
+    <t>078930</t>
+  </si>
+  <si>
+    <t>079370</t>
+  </si>
+  <si>
+    <t>079550</t>
+  </si>
+  <si>
+    <t>079900</t>
+  </si>
+  <si>
+    <t>080220</t>
+  </si>
+  <si>
+    <t>081180</t>
+  </si>
+  <si>
+    <t>081660</t>
+  </si>
+  <si>
+    <t>082270</t>
+  </si>
+  <si>
+    <t>082920</t>
+  </si>
+  <si>
+    <t>083450</t>
+  </si>
+  <si>
+    <t>084010</t>
+  </si>
+  <si>
+    <t>084110</t>
+  </si>
+  <si>
+    <t>084370</t>
+  </si>
+  <si>
+    <t>084690</t>
+  </si>
+  <si>
+    <t>084850</t>
+  </si>
+  <si>
+    <t>085660</t>
+  </si>
+  <si>
+    <t>086280</t>
+  </si>
+  <si>
+    <t>086450</t>
+  </si>
+  <si>
+    <t>086520</t>
+  </si>
+  <si>
+    <t>086710</t>
+  </si>
+  <si>
+    <t>086790</t>
+  </si>
+  <si>
+    <t>086820</t>
+  </si>
+  <si>
+    <t>086900</t>
+  </si>
+  <si>
+    <t>087010</t>
+  </si>
+  <si>
+    <t>088350</t>
+  </si>
+  <si>
+    <t>089010</t>
+  </si>
+  <si>
+    <t>089030</t>
+  </si>
+  <si>
+    <t>089590</t>
+  </si>
+  <si>
+    <t>089860</t>
+  </si>
+  <si>
+    <t>090360</t>
+  </si>
+  <si>
+    <t>090430</t>
+  </si>
+  <si>
+    <t>091120</t>
+  </si>
+  <si>
+    <t>091700</t>
+  </si>
+  <si>
+    <t>092870</t>
+  </si>
+  <si>
+    <t>093370</t>
+  </si>
+  <si>
+    <t>094170</t>
+  </si>
+  <si>
+    <t>094280</t>
+  </si>
+  <si>
+    <t>094360</t>
+  </si>
+  <si>
+    <t>094820</t>
+  </si>
+  <si>
+    <t>095340</t>
+  </si>
+  <si>
+    <t>095500</t>
+  </si>
+  <si>
+    <t>095610</t>
+  </si>
+  <si>
+    <t>095660</t>
+  </si>
+  <si>
+    <t>096250</t>
+  </si>
+  <si>
+    <t>096530</t>
+  </si>
+  <si>
+    <t>096770</t>
+  </si>
+  <si>
+    <t>097520</t>
+  </si>
+  <si>
+    <t>097950</t>
+  </si>
+  <si>
+    <t>098070</t>
+  </si>
+  <si>
+    <t>098460</t>
+  </si>
+  <si>
+    <t>099190</t>
+  </si>
+  <si>
+    <t>099320</t>
+  </si>
+  <si>
+    <t>100790</t>
+  </si>
+  <si>
+    <t>100840</t>
+  </si>
+  <si>
+    <t>101160</t>
+  </si>
+  <si>
+    <t>101360</t>
+  </si>
+  <si>
+    <t>101490</t>
+  </si>
+  <si>
+    <t>101730</t>
+  </si>
+  <si>
+    <t>101970</t>
+  </si>
+  <si>
+    <t>102120</t>
+  </si>
+  <si>
+    <t>102460</t>
+  </si>
+  <si>
+    <t>102710</t>
+  </si>
+  <si>
+    <t>103140</t>
+  </si>
+  <si>
+    <t>105560</t>
+  </si>
+  <si>
+    <t>105630</t>
+  </si>
+  <si>
+    <t>105840</t>
+  </si>
+  <si>
+    <t>107640</t>
+  </si>
+  <si>
+    <t>108320</t>
+  </si>
+  <si>
+    <t>108860</t>
+  </si>
+  <si>
+    <t>111770</t>
+  </si>
+  <si>
+    <t>112040</t>
+  </si>
+  <si>
+    <t>112290</t>
+  </si>
+  <si>
+    <t>112610</t>
+  </si>
+  <si>
+    <t>114090</t>
+  </si>
+  <si>
+    <t>114840</t>
+  </si>
+  <si>
+    <t>115180</t>
+  </si>
+  <si>
+    <t>115450</t>
+  </si>
+  <si>
+    <t>115500</t>
+  </si>
+  <si>
+    <t>117580</t>
+  </si>
+  <si>
+    <t>117730</t>
+  </si>
+  <si>
+    <t>118990</t>
+  </si>
+  <si>
+    <t>119610</t>
+  </si>
+  <si>
+    <t>119850</t>
+  </si>
+  <si>
+    <t>120110</t>
+  </si>
+  <si>
+    <t>121600</t>
+  </si>
+  <si>
+    <t>122640</t>
+  </si>
+  <si>
+    <t>122870</t>
+  </si>
+  <si>
+    <t>123330</t>
+  </si>
+  <si>
+    <t>123690</t>
+  </si>
+  <si>
+    <t>124500</t>
+  </si>
+  <si>
+    <t>125020</t>
+  </si>
+  <si>
+    <t>126700</t>
+  </si>
+  <si>
+    <t>126720</t>
+  </si>
+  <si>
+    <t>128940</t>
+  </si>
+  <si>
+    <t>130660</t>
+  </si>
+  <si>
+    <t>131290</t>
+  </si>
+  <si>
+    <t>131970</t>
+  </si>
+  <si>
+    <t>136150</t>
+  </si>
+  <si>
+    <t>136490</t>
+  </si>
+  <si>
+    <t>137310</t>
+  </si>
+  <si>
+    <t>137400</t>
+  </si>
+  <si>
+    <t>138040</t>
+  </si>
+  <si>
+    <t>138490</t>
+  </si>
+  <si>
+    <t>138610</t>
+  </si>
+  <si>
+    <t>138930</t>
+  </si>
+  <si>
+    <t>139130</t>
+  </si>
+  <si>
+    <t>139480</t>
+  </si>
+  <si>
+    <t>140410</t>
+  </si>
+  <si>
+    <t>140670</t>
+  </si>
+  <si>
+    <t>140860</t>
+  </si>
+  <si>
+    <t>141080</t>
+  </si>
+  <si>
+    <t>144510</t>
+  </si>
+  <si>
+    <t>145020</t>
+  </si>
+  <si>
+    <t>145170</t>
+  </si>
+  <si>
+    <t>145720</t>
+  </si>
+  <si>
+    <t>147830</t>
+  </si>
+  <si>
+    <t>158430</t>
+  </si>
+  <si>
+    <t>160190</t>
+  </si>
+  <si>
+    <t>161390</t>
+  </si>
+  <si>
+    <t>161580</t>
+  </si>
+  <si>
+    <t>161890</t>
+  </si>
+  <si>
+    <t>163280</t>
+  </si>
+  <si>
+    <t>166090</t>
+  </si>
+  <si>
+    <t>170900</t>
+  </si>
+  <si>
+    <t>171090</t>
+  </si>
+  <si>
+    <t>175330</t>
+  </si>
+  <si>
+    <t>176750</t>
+  </si>
+  <si>
+    <t>178320</t>
+  </si>
+  <si>
+    <t>178920</t>
+  </si>
+  <si>
+    <t>179290</t>
+  </si>
+  <si>
+    <t>179900</t>
+  </si>
+  <si>
+    <t>180640</t>
+  </si>
+  <si>
+    <t>181710</t>
+  </si>
+  <si>
+    <t>182360</t>
+  </si>
+  <si>
+    <t>183300</t>
+  </si>
+  <si>
+    <t>185750</t>
+  </si>
+  <si>
+    <t>189300</t>
+  </si>
+  <si>
+    <t>192080</t>
+  </si>
+  <si>
+    <t>192650</t>
+  </si>
+  <si>
+    <t>192820</t>
+  </si>
+  <si>
+    <t>194370</t>
+  </si>
+  <si>
+    <t>194480</t>
+  </si>
+  <si>
+    <t>194700</t>
+  </si>
+  <si>
+    <t>195870</t>
+  </si>
+  <si>
+    <t>195940</t>
+  </si>
+  <si>
+    <t>196170</t>
+  </si>
+  <si>
+    <t>199800</t>
+  </si>
+  <si>
+    <t>200130</t>
+  </si>
+  <si>
+    <t>200350</t>
+  </si>
+  <si>
+    <t>200670</t>
+  </si>
+  <si>
+    <t>200880</t>
+  </si>
+  <si>
+    <t>204270</t>
+  </si>
+  <si>
+    <t>204320</t>
+  </si>
+  <si>
+    <t>206560</t>
+  </si>
+  <si>
+    <t>206640</t>
+  </si>
+  <si>
+    <t>206650</t>
+  </si>
+  <si>
+    <t>207940</t>
+  </si>
+  <si>
+    <t>208370</t>
+  </si>
+  <si>
+    <t>209640</t>
+  </si>
+  <si>
+    <t>211050</t>
+  </si>
+  <si>
+    <t>211270</t>
+  </si>
+  <si>
+    <t>213420</t>
+  </si>
+  <si>
+    <t>214150</t>
+  </si>
+  <si>
+    <t>214180</t>
+  </si>
+  <si>
+    <t>214260</t>
+  </si>
+  <si>
+    <t>214320</t>
+  </si>
+  <si>
+    <t>214370</t>
+  </si>
+  <si>
+    <t>214430</t>
+  </si>
+  <si>
+    <t>215000</t>
+  </si>
+  <si>
+    <t>215200</t>
+  </si>
+  <si>
+    <t>217270</t>
+  </si>
+  <si>
+    <t>218410</t>
+  </si>
+  <si>
+    <t>222080</t>
+  </si>
+  <si>
+    <t>222800</t>
+  </si>
+  <si>
+    <t>225570</t>
+  </si>
+  <si>
+    <t>226330</t>
+  </si>
+  <si>
+    <t>226400</t>
+  </si>
+  <si>
+    <t>226590</t>
+  </si>
+  <si>
+    <t>228760</t>
+  </si>
+  <si>
+    <t>229640</t>
+  </si>
+  <si>
+    <t>232140</t>
+  </si>
+  <si>
+    <t>234690</t>
+  </si>
+  <si>
+    <t>236200</t>
+  </si>
+  <si>
+    <t>237690</t>
+  </si>
+  <si>
+    <t>237880</t>
+  </si>
+  <si>
+    <t>240550</t>
+  </si>
+  <si>
+    <t>240810</t>
+  </si>
+  <si>
+    <t>241520</t>
+  </si>
+  <si>
+    <t>241560</t>
+  </si>
+  <si>
+    <t>241590</t>
+  </si>
+  <si>
+    <t>241710</t>
+  </si>
+  <si>
+    <t>247540</t>
+  </si>
+  <si>
+    <t>248070</t>
+  </si>
+  <si>
+    <t>251270</t>
+  </si>
+  <si>
+    <t>251970</t>
+  </si>
+  <si>
+    <t>253450</t>
+  </si>
+  <si>
+    <t>253590</t>
+  </si>
+  <si>
+    <t>256940</t>
+  </si>
+  <si>
+    <t>257720</t>
+  </si>
+  <si>
+    <t>259960</t>
+  </si>
+  <si>
+    <t>260970</t>
+  </si>
+  <si>
+    <t>263750</t>
+  </si>
+  <si>
+    <t>263860</t>
+  </si>
+  <si>
+    <t>264850</t>
+  </si>
+  <si>
+    <t>267250</t>
+  </si>
+  <si>
+    <t>267260</t>
+  </si>
+  <si>
+    <t>267850</t>
+  </si>
+  <si>
+    <t>267980</t>
+  </si>
+  <si>
+    <t>268280</t>
+  </si>
+  <si>
+    <t>270660</t>
+  </si>
+  <si>
+    <t>271560</t>
+  </si>
+  <si>
+    <t>271940</t>
+  </si>
+  <si>
+    <t>271980</t>
+  </si>
+  <si>
+    <t>272210</t>
+  </si>
+  <si>
+    <t>272290</t>
+  </si>
+  <si>
+    <t>272450</t>
+  </si>
+  <si>
+    <t>274090</t>
+  </si>
+  <si>
+    <t>277810</t>
+  </si>
+  <si>
+    <t>278280</t>
+  </si>
+  <si>
+    <t>278470</t>
+  </si>
+  <si>
+    <t>280360</t>
+  </si>
+  <si>
+    <t>281740</t>
+  </si>
+  <si>
+    <t>281820</t>
+  </si>
+  <si>
+    <t>282330</t>
+  </si>
+  <si>
+    <t>282720</t>
+  </si>
+  <si>
+    <t>282880</t>
+  </si>
+  <si>
+    <t>285130</t>
+  </si>
+  <si>
+    <t>285490</t>
+  </si>
+  <si>
+    <t>286940</t>
+  </si>
+  <si>
+    <t>289220</t>
+  </si>
+  <si>
+    <t>289930</t>
+  </si>
+  <si>
+    <t>290650</t>
+  </si>
+  <si>
+    <t>290670</t>
+  </si>
+  <si>
+    <t>293490</t>
+  </si>
+  <si>
+    <t>294570</t>
+  </si>
+  <si>
+    <t>294870</t>
+  </si>
+  <si>
+    <t>295310</t>
+  </si>
+  <si>
+    <t>297090</t>
+  </si>
+  <si>
+    <t>298000</t>
+  </si>
+  <si>
+    <t>298020</t>
+  </si>
+  <si>
+    <t>298040</t>
+  </si>
+  <si>
+    <t>298050</t>
+  </si>
+  <si>
+    <t>298380</t>
+  </si>
+  <si>
+    <t>298830</t>
+  </si>
+  <si>
+    <t>300080</t>
+  </si>
+  <si>
+    <t>300720</t>
+  </si>
+  <si>
+    <t>302440</t>
+  </si>
+  <si>
+    <t>304360</t>
+  </si>
+  <si>
+    <t>305090</t>
+  </si>
+  <si>
+    <t>306200</t>
+  </si>
+  <si>
+    <t>307950</t>
+  </si>
+  <si>
+    <t>308430</t>
+  </si>
+  <si>
+    <t>309710</t>
+  </si>
+  <si>
+    <t>310210</t>
+  </si>
+  <si>
+    <t>314930</t>
+  </si>
+  <si>
+    <t>315640</t>
+  </si>
+  <si>
+    <t>316140</t>
+  </si>
+  <si>
+    <t>317330</t>
+  </si>
+  <si>
+    <t>319660</t>
+  </si>
+  <si>
+    <t>321820</t>
+  </si>
+  <si>
+    <t>322000</t>
+  </si>
+  <si>
+    <t>322510</t>
+  </si>
+  <si>
+    <t>323280</t>
+  </si>
+  <si>
+    <t>323410</t>
+  </si>
+  <si>
+    <t>323990</t>
+  </si>
+  <si>
+    <t>326030</t>
+  </si>
+  <si>
+    <t>328130</t>
+  </si>
+  <si>
+    <t>329180</t>
+  </si>
+  <si>
+    <t>336370</t>
+  </si>
+  <si>
+    <t>336570</t>
+  </si>
+  <si>
+    <t>337930</t>
+  </si>
+  <si>
+    <t>338220</t>
+  </si>
+  <si>
+    <t>339770</t>
+  </si>
+  <si>
+    <t>340450</t>
+  </si>
+  <si>
+    <t>340570</t>
+  </si>
+  <si>
+    <t>347700</t>
+  </si>
+  <si>
+    <t>348210</t>
+  </si>
+  <si>
+    <t>348340</t>
+  </si>
+  <si>
+    <t>348370</t>
+  </si>
+  <si>
+    <t>351870</t>
+  </si>
+  <si>
+    <t>352480</t>
+  </si>
+  <si>
+    <t>352820</t>
+  </si>
+  <si>
+    <t>354320</t>
+  </si>
+  <si>
+    <t>357780</t>
+  </si>
+  <si>
+    <t>358570</t>
+  </si>
+  <si>
+    <t>361390</t>
+  </si>
+  <si>
+    <t>361610</t>
+  </si>
+  <si>
+    <t>365330</t>
+  </si>
+  <si>
+    <t>365340</t>
+  </si>
+  <si>
+    <t>368770</t>
+  </si>
+  <si>
+    <t>370090</t>
+  </si>
+  <si>
+    <t>372170</t>
+  </si>
+  <si>
+    <t>372320</t>
+  </si>
+  <si>
+    <t>373220</t>
+  </si>
+  <si>
+    <t>375500</t>
+  </si>
+  <si>
+    <t>376300</t>
+  </si>
+  <si>
+    <t>376900</t>
+  </si>
+  <si>
+    <t>377300</t>
+  </si>
+  <si>
+    <t>377450</t>
+  </si>
+  <si>
+    <t>377480</t>
+  </si>
+  <si>
+    <t>377740</t>
+  </si>
+  <si>
+    <t>378340</t>
+  </si>
+  <si>
+    <t>381620</t>
+  </si>
+  <si>
+    <t>381970</t>
+  </si>
+  <si>
+    <t>382150</t>
+  </si>
+  <si>
+    <t>382840</t>
+  </si>
+  <si>
+    <t>382900</t>
+  </si>
+  <si>
+    <t>383220</t>
+  </si>
+  <si>
+    <t>383310</t>
+  </si>
+  <si>
+    <t>388720</t>
+  </si>
+  <si>
+    <t>389020</t>
+  </si>
+  <si>
+    <t>389140</t>
+  </si>
+  <si>
+    <t>389260</t>
+  </si>
+  <si>
+    <t>389470</t>
+  </si>
+  <si>
+    <t>389650</t>
+  </si>
+  <si>
+    <t>393890</t>
+  </si>
+  <si>
+    <t>393970</t>
+  </si>
+  <si>
+    <t>394280</t>
+  </si>
+  <si>
+    <t>396470</t>
+  </si>
+  <si>
+    <t>399720</t>
+  </si>
+  <si>
+    <t>402030</t>
+  </si>
+  <si>
+    <t>402340</t>
+  </si>
+  <si>
+    <t>402490</t>
+  </si>
+  <si>
+    <t>403870</t>
+  </si>
+  <si>
+    <t>407400</t>
+  </si>
+  <si>
+    <t>411080</t>
+  </si>
+  <si>
+    <t>416180</t>
+  </si>
+  <si>
+    <t>417010</t>
+  </si>
+  <si>
+    <t>417200</t>
+  </si>
+  <si>
+    <t>418470</t>
+  </si>
+  <si>
+    <t>418550</t>
+  </si>
+  <si>
+    <t>419530</t>
+  </si>
+  <si>
+    <t>420770</t>
+  </si>
+  <si>
+    <t>424960</t>
+  </si>
+  <si>
+    <t>425040</t>
+  </si>
+  <si>
+    <t>432470</t>
+  </si>
+  <si>
+    <t>432720</t>
+  </si>
+  <si>
+    <t>435570</t>
+  </si>
+  <si>
+    <t>437730</t>
+  </si>
+  <si>
+    <t>439090</t>
+  </si>
+  <si>
+    <t>439260</t>
+  </si>
+  <si>
+    <t>440110</t>
+  </si>
+  <si>
+    <t>443060</t>
+  </si>
+  <si>
+    <t>443250</t>
+  </si>
+  <si>
+    <t>443670</t>
+  </si>
+  <si>
+    <t>445090</t>
+  </si>
+  <si>
+    <t>445680</t>
+  </si>
+  <si>
+    <t>448280</t>
+  </si>
+  <si>
+    <t>450080</t>
+  </si>
+  <si>
+    <t>450950</t>
+  </si>
+  <si>
+    <t>451250</t>
+  </si>
+  <si>
+    <t>451760</t>
+  </si>
+  <si>
+    <t>452190</t>
+  </si>
+  <si>
+    <t>452280</t>
+  </si>
+  <si>
+    <t>452430</t>
+  </si>
+  <si>
+    <t>452450</t>
+  </si>
+  <si>
+    <t>453340</t>
+  </si>
+  <si>
+    <t>453450</t>
+  </si>
+  <si>
+    <t>454910</t>
+  </si>
+  <si>
+    <t>455900</t>
+  </si>
+  <si>
+    <t>456010</t>
+  </si>
+  <si>
+    <t>456040</t>
+  </si>
+  <si>
+    <t>456070</t>
+  </si>
+  <si>
+    <t>456160</t>
+  </si>
+  <si>
+    <t>457190</t>
+  </si>
+  <si>
+    <t>458650</t>
+  </si>
+  <si>
+    <t>459100</t>
+  </si>
+  <si>
+    <t>459510</t>
+  </si>
+  <si>
+    <t>460860</t>
+  </si>
+  <si>
+    <t>461030</t>
+  </si>
+  <si>
+    <t>461300</t>
+  </si>
+  <si>
+    <t>462350</t>
+  </si>
+  <si>
+    <t>462870</t>
+  </si>
+  <si>
+    <t>463480</t>
+  </si>
+  <si>
+    <t>464080</t>
+  </si>
+  <si>
+    <t>473980</t>
+  </si>
+  <si>
+    <t>474170</t>
+  </si>
+  <si>
+    <t>474650</t>
+  </si>
+  <si>
+    <t>475400</t>
+  </si>
+  <si>
+    <t>475430</t>
+  </si>
+  <si>
+    <t>475560</t>
+  </si>
+  <si>
+    <t>475830</t>
+  </si>
+  <si>
+    <t>475960</t>
+  </si>
+  <si>
+    <t>476040</t>
+  </si>
+  <si>
+    <t>479960</t>
+  </si>
+  <si>
+    <t>480370</t>
+  </si>
+  <si>
+    <t>481070</t>
+  </si>
+  <si>
+    <t>482630</t>
+  </si>
+  <si>
+    <t>483650</t>
+  </si>
+  <si>
+    <t>484120</t>
+  </si>
+  <si>
+    <t>484590</t>
+  </si>
+  <si>
+    <t>484810</t>
+  </si>
+  <si>
+    <t>484870</t>
+  </si>
+  <si>
+    <t>487570</t>
+  </si>
+  <si>
+    <t>489460</t>
+  </si>
+  <si>
+    <t>489500</t>
+  </si>
+  <si>
+    <t>489790</t>
+  </si>
+  <si>
+    <t>499790</t>
   </si>
 </sst>
 </file>
@@ -397,10 +2530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A713"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -412,7 +2545,3562 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A86" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A89" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A90" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A92" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A106" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A109" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A111" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A112" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A113" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A114" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A115" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A116" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A117" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A118" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A119" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A120" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A121" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A122" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A123" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A124" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A125" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A126" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A127" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A128" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A129" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A130" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A131" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A132" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A133" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A134" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A135" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A136" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A137" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A138" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A139" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A140" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A141" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A142" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A143" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A144" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A145" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A146" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A147" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A148" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A149" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A150" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A151" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A152" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A153" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A154" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A155" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A156" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A157" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A158" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A159" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A160" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A161" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A162" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A163" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A164" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A165" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A166" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A167" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A168" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A169" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A170" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A171" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A172" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A173" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A174" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A175" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A176" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A177" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A178" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A179" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A180" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A181" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A182" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A183" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A184" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A185" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A186" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A187" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A188" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A189" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A190" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A191" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A192" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A193" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A194" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A195" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A196" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A197" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A198" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A199" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A200" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A201" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A202" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A203" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A204" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A205" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A206" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A207" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A208" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A209" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A210" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A211" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A212" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A213" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A214" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A215" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A216" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A217" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A218" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A219" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A220" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A221" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A222" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A223" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A224" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A225" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A226" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A227" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A228" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A229" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A230" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A231" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A232" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A233" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A234" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A235" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A236" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A237" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A238" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A239" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A240" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A241" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A242" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A243" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A244" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A245" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A246" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A247" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A248" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A249" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A250" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A251" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A252" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A253" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A254" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A255" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A256" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A257" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A258" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A259" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A260" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A261" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A262" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A263" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A264" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A265" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A266" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A267" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A268" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A269" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A270" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A271" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A272" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A273" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A274" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A275" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A276" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A277" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A278" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A279" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A280" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A281" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A282" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A283" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A284" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A285" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A286" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A287" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A288" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A289" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A290" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A291" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A292" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A293" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A294" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A295" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A296" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A297" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A298" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A299" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A300" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A301" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A302" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A303" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A304" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A305" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A306" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A307" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A308" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A309" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A310" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A311" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A312" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A313" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A314" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A315" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A316" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A317" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A318" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A319" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A320" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A321" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A322" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A323" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A324" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A325" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A326" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A327" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A328" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A329" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A330" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A331" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A332" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A333" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A334" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A335" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A336" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A337" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A338" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A339" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A340" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A341" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A342" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A343" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A344" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A345" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A346" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A347" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A348" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A349" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A350" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A351" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A352" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A353" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A354" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A355" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A356" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A357" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A358" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A359" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A360" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A361" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A362" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A363" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A364" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A365" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A366" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A367" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A368" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A369" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A370" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A371" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A372" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A373" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A374" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A375" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A376" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A377" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A378" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A379" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A380" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A381" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A382" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A383" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A384" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A385" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A386" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A387" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A388" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A389" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A390" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A391" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A392" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A393" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A394" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A395" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A396" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A397" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A398" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A399" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A400" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A401" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A402" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A403" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A404" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A405" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A406" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A407" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A408" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A409" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A410" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A411" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A412" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A413" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A414" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A415" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A416" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A417" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A418" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A419" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A420" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A421" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A422" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A423" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A424" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A425" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A426" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A427" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A428" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A429" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A430" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A431" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A432" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A433" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A434" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A435" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A436" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A437" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A438" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A439" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A440" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A441" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A442" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A443" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A444" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A445" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A446" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A447" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A448" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A449" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A450" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A451" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A452" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A453" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A454" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A455" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A456" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A457" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A458" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A459" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A460" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A461" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A462" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A463" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A464" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A465" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A466" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A467" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A468" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A469" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A470" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A471" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A472" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A473" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A474" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A475" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A476" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A477" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A478" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A479" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A480" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A481" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A482" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A483" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A484" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A485" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A486" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A487" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A488" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A489" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A490" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A491" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A492" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A493" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A494" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A495" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A496" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A497" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A498" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A499" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A500" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A501" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A502" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A503" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A504" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A505" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A506" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A507" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A508" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A509" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A510" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A511" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A512" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A513" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A514" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A515" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A516" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A517" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A518" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A519" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A520" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A521" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A522" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A523" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A524" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A525" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A526" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A527" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A528" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A529" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A530" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A531" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A532" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A533" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A534" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A535" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A536" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A537" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A538" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A539" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A540" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A541" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A542" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A543" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A544" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A545" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A546" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A547" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A548" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A549" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A550" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A551" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A552" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A553" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A554" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A555" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A556" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A557" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A558" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A559" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A560" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A561" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A562" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A563" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A564" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A565" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A566" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A567" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A568" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A569" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A570" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A571" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A572" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A573" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A574" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A575" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A576" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A577" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A578" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A579" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A580" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A581" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A582" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A583" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A584" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A585" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A586" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A587" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A588" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A589" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A590" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A591" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A592" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A593" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A594" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A595" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A596" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A597" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A598" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A599" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A600" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A601" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A602" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A603" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A604" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A605" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A606" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A607" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A608" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A609" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A610" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A611" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A612" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A613" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A614" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A615" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A616" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A617" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A618" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A619" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A620" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A621" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A622" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A623" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A624" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A625" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A626" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A627" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A628" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A629" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A630" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A631" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A632" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A633" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A634" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A635" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A636" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A637" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A638" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A639" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A640" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A641" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A642" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A643" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A644" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A645" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A646" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A647" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A648" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A649" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A650" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A651" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A652" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A653" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A654" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A655" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A656" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A657" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A658" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A659" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A660" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A661" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A662" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A663" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A664" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A665" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A666" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A667" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A668" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A669" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A670" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A671" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A672" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A673" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A674" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A675" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A676" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A677" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A678" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A679" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A680" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A681" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A682" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A683" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A684" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A685" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A686" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A687" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="688" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A688" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A689" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A690" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A691" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A692" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A693" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A694" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A695" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="696" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A696" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="697" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A697" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A698" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A699" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A700" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A701" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A702" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="703" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A703" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A704" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A705" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A706" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A707" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A708" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A709" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A710" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A711" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A712" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A713" t="s">
+        <v>712</v>
       </c>
     </row>
   </sheetData>
